--- a/raw_data/20200818_saline/20200818_Sensor3_Test_12.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_12.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA0F329-8D61-4128-BD57-5387C475925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>10455.499742</v>
       </c>
       <c r="B2" s="1">
-        <v>2.904305</v>
+        <v>2.9043049999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1143.160000</v>
+        <v>1143.1600000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-256.859000</v>
+        <v>-256.85899999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>10466.200913</v>
+        <v>10466.200913000001</v>
       </c>
       <c r="G2" s="1">
-        <v>2.907278</v>
+        <v>2.9072779999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1164.690000</v>
+        <v>1164.69</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.861000</v>
+        <v>-214.86099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>10476.637268</v>
@@ -511,13 +927,13 @@
         <v>2.910177</v>
       </c>
       <c r="M2" s="1">
-        <v>1192.790000</v>
+        <v>1192.79</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.411000</v>
+        <v>-149.411</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>10486.963974</v>
@@ -526,255 +942,255 @@
         <v>2.913046</v>
       </c>
       <c r="R2" s="1">
-        <v>1200.250000</v>
+        <v>1200.25</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.539000</v>
+        <v>-127.539</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>10497.233639</v>
       </c>
       <c r="V2" s="1">
-        <v>2.915898</v>
+        <v>2.9158979999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1207.340000</v>
+        <v>1207.3399999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.650000</v>
+        <v>-106.65</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>10507.017194</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.918616</v>
+        <v>2.9186160000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1214.810000</v>
+        <v>1214.81</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.613100</v>
+        <v>-89.613100000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>10517.279917</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.921467</v>
+        <v>2.9214669999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>1219.270000</v>
+        <v>1219.27</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.138000</v>
+        <v>-85.138000000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>10527.387430</v>
+        <v>10527.387430000001</v>
       </c>
       <c r="AK2" s="1">
         <v>2.924274</v>
       </c>
       <c r="AL2" s="1">
-        <v>1226.160000</v>
+        <v>1226.1600000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.411800</v>
+        <v>-88.411799999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>10537.937329</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.927205</v>
+        <v>2.9272049999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.181000</v>
+        <v>-100.181</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>10548.593348</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.930165</v>
+        <v>2.9301650000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1243.770000</v>
+        <v>1243.77</v>
       </c>
       <c r="AW2" s="1">
-        <v>-119.249000</v>
+        <v>-119.249</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>10559.795529</v>
+        <v>10559.795529000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.933277</v>
+        <v>2.9332769999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="BB2" s="1">
-        <v>-136.595000</v>
+        <v>-136.595</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>10570.695111</v>
+        <v>10570.695111000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.936304</v>
+        <v>2.9363039999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1291.270000</v>
+        <v>1291.27</v>
       </c>
       <c r="BG2" s="1">
-        <v>-217.761000</v>
+        <v>-217.761</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>10581.336249</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.939260</v>
+        <v>2.93926</v>
       </c>
       <c r="BK2" s="1">
-        <v>1359.140000</v>
+        <v>1359.14</v>
       </c>
       <c r="BL2" s="1">
-        <v>-353.591000</v>
+        <v>-353.59100000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>10592.071690</v>
+        <v>10592.071690000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.942242</v>
+        <v>2.9422419999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1470.890000</v>
+        <v>1470.89</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.896000</v>
+        <v>-575.89599999999996</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>10602.811532</v>
       </c>
       <c r="BT2" s="1">
-        <v>2.945225</v>
+        <v>2.9452250000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1599.870000</v>
+        <v>1599.87</v>
       </c>
       <c r="BV2" s="1">
-        <v>-828.410000</v>
+        <v>-828.41</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>10613.784061</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.948273</v>
+        <v>2.9482729999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1750.260000</v>
+        <v>1750.26</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1103.500000</v>
+        <v>-1103.5</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>10625.180606</v>
       </c>
       <c r="CD2" s="1">
-        <v>2.951439</v>
+        <v>2.9514390000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2166.720000</v>
+        <v>2166.7199999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1773.800000</v>
+        <v>-1773.8</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>10456.180237</v>
       </c>
       <c r="B3" s="1">
-        <v>2.904495</v>
+        <v>2.9044949999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1142.840000</v>
+        <v>1142.8399999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-256.560000</v>
+        <v>-256.56</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>10466.597712</v>
+        <v>10466.597712000001</v>
       </c>
       <c r="G3" s="1">
-        <v>2.907388</v>
+        <v>2.9073880000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1165.190000</v>
+        <v>1165.19</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.995000</v>
+        <v>-215.995</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>10476.748338</v>
+        <v>10476.748337999999</v>
       </c>
       <c r="L3" s="1">
-        <v>2.910208</v>
+        <v>2.9102079999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1192.760000</v>
+        <v>1192.76</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.592000</v>
+        <v>-149.59200000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>10487.316824</v>
@@ -783,73 +1199,73 @@
         <v>2.913144</v>
       </c>
       <c r="R3" s="1">
-        <v>1200.220000</v>
+        <v>1200.22</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.532000</v>
+        <v>-127.532</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>10497.581303</v>
+        <v>10497.581303000001</v>
       </c>
       <c r="V3" s="1">
-        <v>2.915995</v>
+        <v>2.9159950000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1207.420000</v>
+        <v>1207.42</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.608000</v>
+        <v>-106.608</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>10507.397626</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.918722</v>
+        <v>2.9187219999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1214.760000</v>
+        <v>1214.76</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.639900</v>
+        <v>-89.639899999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>10517.657405</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.921572</v>
+        <v>2.9215719999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1219.250000</v>
+        <v>1219.25</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.154400</v>
+        <v>-85.154399999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>10527.800596</v>
+        <v>10527.800595999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>2.924389</v>
+        <v>2.9243890000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1226.130000</v>
+        <v>1226.1300000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.439500</v>
+        <v>-88.439499999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>10538.045531</v>
@@ -858,13 +1274,13 @@
         <v>2.927235</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1233.950000</v>
+        <v>1233.95</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.181000</v>
+        <v>-100.181</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>10549.036274</v>
@@ -873,28 +1289,28 @@
         <v>2.930288</v>
       </c>
       <c r="AV3" s="1">
-        <v>1243.760000</v>
+        <v>1243.76</v>
       </c>
       <c r="AW3" s="1">
-        <v>-119.306000</v>
+        <v>-119.306</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>10560.158101</v>
+        <v>10560.158101000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.933377</v>
+        <v>2.9333770000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1252.050000</v>
+        <v>1252.05</v>
       </c>
       <c r="BB3" s="1">
-        <v>-136.589000</v>
+        <v>-136.589</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>10571.064102</v>
@@ -903,120 +1319,120 @@
         <v>2.936407</v>
       </c>
       <c r="BF3" s="1">
-        <v>1291.240000</v>
+        <v>1291.24</v>
       </c>
       <c r="BG3" s="1">
-        <v>-217.749000</v>
+        <v>-217.749</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>10581.716184</v>
+        <v>10581.716184000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.939366</v>
+        <v>2.9393660000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1359.140000</v>
+        <v>1359.14</v>
       </c>
       <c r="BL3" s="1">
-        <v>-353.565000</v>
+        <v>-353.565</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>10592.482841</v>
+        <v>10592.482840999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>2.942356</v>
+        <v>2.9423560000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1470.830000</v>
+        <v>1470.83</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.913000</v>
+        <v>-575.91300000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>10603.241563</v>
       </c>
       <c r="BT3" s="1">
-        <v>2.945345</v>
+        <v>2.9453450000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1599.760000</v>
+        <v>1599.76</v>
       </c>
       <c r="BV3" s="1">
-        <v>-828.261000</v>
+        <v>-828.26099999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>10614.221005</v>
+        <v>10614.221004999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.948395</v>
+        <v>2.9483950000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1750.200000</v>
+        <v>1750.2</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1103.530000</v>
+        <v>-1103.53</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>10626.054414</v>
       </c>
       <c r="CD3" s="1">
-        <v>2.951682</v>
+        <v>2.9516819999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2165.520000</v>
+        <v>2165.52</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1775.590000</v>
+        <v>-1775.59</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>10456.560669</v>
       </c>
       <c r="B4" s="1">
-        <v>2.904600</v>
+        <v>2.9045999999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1143.070000</v>
+        <v>1143.07</v>
       </c>
       <c r="D4" s="1">
-        <v>-256.794000</v>
+        <v>-256.79399999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>10466.940943</v>
       </c>
       <c r="G4" s="1">
-        <v>2.907484</v>
+        <v>2.9074840000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1165.220000</v>
+        <v>1165.22</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.921000</v>
+        <v>-215.92099999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>10477.093058</v>
@@ -1025,163 +1441,163 @@
         <v>2.910304</v>
       </c>
       <c r="M4" s="1">
-        <v>1192.520000</v>
+        <v>1192.52</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.505000</v>
+        <v>-149.505</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>10487.664293</v>
       </c>
       <c r="Q4" s="1">
-        <v>2.913240</v>
+        <v>2.9132400000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1200.240000</v>
+        <v>1200.24</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.496000</v>
+        <v>-127.496</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>10497.922054</v>
+        <v>10497.922054000001</v>
       </c>
       <c r="V4" s="1">
-        <v>2.916089</v>
+        <v>2.9160889999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1207.440000</v>
+        <v>1207.44</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.611000</v>
+        <v>-106.611</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>10507.803884</v>
+        <v>10507.803884000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>2.918834</v>
+        <v>2.9188339999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1214.950000</v>
+        <v>1214.95</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.779900</v>
+        <v>-89.779899999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>10518.069084</v>
+        <v>10518.069084000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.921686</v>
+        <v>2.9216859999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1219.260000</v>
+        <v>1219.26</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.122700</v>
+        <v>-85.122699999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>10528.148254</v>
       </c>
       <c r="AK4" s="1">
-        <v>2.924486</v>
+        <v>2.9244859999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1226.120000</v>
+        <v>1226.1199999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.416400</v>
+        <v>-88.416399999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>10538.395692</v>
       </c>
       <c r="AP4" s="1">
-        <v>2.927332</v>
+        <v>2.9273319999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.173000</v>
+        <v>-100.173</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>10549.400370</v>
+        <v>10549.400369999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.930389</v>
+        <v>2.9303889999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1243.750000</v>
+        <v>1243.75</v>
       </c>
       <c r="AW4" s="1">
-        <v>-119.270000</v>
+        <v>-119.27</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>10560.517173</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.933477</v>
+        <v>2.9334769999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="BB4" s="1">
-        <v>-136.590000</v>
+        <v>-136.59</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>10571.426182</v>
+        <v>10571.426181999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.936507</v>
+        <v>2.9365070000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1291.240000</v>
+        <v>1291.24</v>
       </c>
       <c r="BG4" s="1">
-        <v>-217.757000</v>
+        <v>-217.75700000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>10582.465143</v>
+        <v>10582.465142999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.939574</v>
+        <v>2.9395739999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1359.160000</v>
+        <v>1359.16</v>
       </c>
       <c r="BL4" s="1">
-        <v>-353.595000</v>
+        <v>-353.59500000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>10592.899513</v>
@@ -1190,28 +1606,28 @@
         <v>2.942472</v>
       </c>
       <c r="BP4" s="1">
-        <v>1470.870000</v>
+        <v>1470.87</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.925000</v>
+        <v>-575.92499999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>10603.664652</v>
+        <v>10603.664651999999</v>
       </c>
       <c r="BT4" s="1">
         <v>2.945462</v>
       </c>
       <c r="BU4" s="1">
-        <v>1599.790000</v>
+        <v>1599.79</v>
       </c>
       <c r="BV4" s="1">
-        <v>-828.027000</v>
+        <v>-828.02700000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>10614.643596</v>
@@ -1220,288 +1636,288 @@
         <v>2.948512</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1750.280000</v>
+        <v>1750.28</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1103.610000</v>
+        <v>-1103.6099999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>10626.313965</v>
+        <v>10626.313964999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.951754</v>
+        <v>2.9517540000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>2165.390000</v>
+        <v>2165.39</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1775.100000</v>
+        <v>-1775.1</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>10456.904397</v>
       </c>
       <c r="B5" s="1">
-        <v>2.904696</v>
+        <v>2.9046959999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1143.000000</v>
+        <v>1143</v>
       </c>
       <c r="D5" s="1">
-        <v>-256.595000</v>
+        <v>-256.59500000000003</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>10467.287183</v>
       </c>
       <c r="G5" s="1">
-        <v>2.907580</v>
+        <v>2.9075799999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>1164.970000</v>
+        <v>1164.97</v>
       </c>
       <c r="I5" s="1">
-        <v>-215.272000</v>
+        <v>-215.27199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>10477.439762</v>
       </c>
       <c r="L5" s="1">
-        <v>2.910400</v>
+        <v>2.9104000000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1192.510000</v>
+        <v>1192.51</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.526000</v>
+        <v>-149.52600000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>10488.079443</v>
+        <v>10488.079443000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.913355</v>
+        <v>2.9133550000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1200.260000</v>
+        <v>1200.26</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.487000</v>
+        <v>-127.48699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>10498.336710</v>
+        <v>10498.33671</v>
       </c>
       <c r="V5" s="1">
-        <v>2.916205</v>
+        <v>2.9162050000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1207.380000</v>
+        <v>1207.3800000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.631000</v>
+        <v>-106.631</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>10508.117353</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.918921</v>
+        <v>2.9189210000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1214.630000</v>
+        <v>1214.6300000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.480900</v>
+        <v>-89.480900000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>10518.345820</v>
+        <v>10518.34582</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.921763</v>
+        <v>2.9217629999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1219.240000</v>
+        <v>1219.24</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.148100</v>
+        <v>-85.148099999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>10528.498462</v>
       </c>
       <c r="AK5" s="1">
-        <v>2.924583</v>
+        <v>2.9245830000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1226.130000</v>
+        <v>1226.1300000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.430800</v>
+        <v>-88.430800000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>10538.752224</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.927431</v>
+        <v>2.9274309999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.199000</v>
+        <v>-100.199</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>10549.768370</v>
+        <v>10549.76837</v>
       </c>
       <c r="AU5" s="1">
         <v>2.930491</v>
       </c>
       <c r="AV5" s="1">
-        <v>1243.770000</v>
+        <v>1243.77</v>
       </c>
       <c r="AW5" s="1">
-        <v>-119.293000</v>
+        <v>-119.29300000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>10561.232899</v>
+        <v>10561.232899000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.933676</v>
+        <v>2.9336760000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1252.070000</v>
+        <v>1252.07</v>
       </c>
       <c r="BB5" s="1">
-        <v>-136.586000</v>
+        <v>-136.58600000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>10572.149845</v>
       </c>
       <c r="BE5" s="1">
-        <v>2.936708</v>
+        <v>2.9367079999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG5" s="1">
-        <v>-217.743000</v>
+        <v>-217.74299999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>10582.840646</v>
+        <v>10582.840646000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.939678</v>
+        <v>2.9396779999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1359.180000</v>
+        <v>1359.18</v>
       </c>
       <c r="BL5" s="1">
-        <v>-353.586000</v>
+        <v>-353.58600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>10593.297306</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.942583</v>
+        <v>2.9425829999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1470.890000</v>
+        <v>1470.89</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.995000</v>
+        <v>-575.995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>10604.078810</v>
+        <v>10604.078810000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.945577</v>
+        <v>2.9455770000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1599.790000</v>
+        <v>1599.79</v>
       </c>
       <c r="BV5" s="1">
-        <v>-827.892000</v>
+        <v>-827.89200000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>10615.392556</v>
+        <v>10615.392556000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>2.948720</v>
+        <v>2.9487199999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1750.110000</v>
+        <v>1750.11</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1103.680000</v>
+        <v>-1103.68</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>10626.835769</v>
+        <v>10626.835768999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>2.951899</v>
+        <v>2.9518990000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2166.890000</v>
+        <v>2166.89</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1774.560000</v>
+        <v>-1774.56</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>10457.251628</v>
       </c>
@@ -1509,270 +1925,270 @@
         <v>2.904792</v>
       </c>
       <c r="C6" s="1">
-        <v>1143.050000</v>
+        <v>1143.05</v>
       </c>
       <c r="D6" s="1">
-        <v>-256.739000</v>
+        <v>-256.73899999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>10467.711232</v>
       </c>
       <c r="G6" s="1">
-        <v>2.907698</v>
+        <v>2.9076979999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.430000</v>
+        <v>1165.43</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.617000</v>
+        <v>-215.61699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>10477.851937</v>
+        <v>10477.851936999999</v>
       </c>
       <c r="L6" s="1">
         <v>2.910514</v>
       </c>
       <c r="M6" s="1">
-        <v>1192.640000</v>
+        <v>1192.6400000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.495000</v>
+        <v>-149.495</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>10488.378563</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.913438</v>
+        <v>2.9134380000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1200.280000</v>
+        <v>1200.28</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.488000</v>
+        <v>-127.488</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>10498.639269</v>
+        <v>10498.639268999999</v>
       </c>
       <c r="V6" s="1">
-        <v>2.916289</v>
+        <v>2.9162889999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1207.450000</v>
+        <v>1207.45</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.799000</v>
+        <v>-106.79900000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>10508.467496</v>
+        <v>10508.467495999999</v>
       </c>
       <c r="AA6" s="1">
         <v>2.919019</v>
       </c>
       <c r="AB6" s="1">
-        <v>1214.620000</v>
+        <v>1214.6199999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.710200</v>
+        <v>-89.7102</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>10518.688059</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.921858</v>
+        <v>2.9218579999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>1219.190000</v>
+        <v>1219.19</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.099700</v>
+        <v>-85.099699999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>10528.847127</v>
+        <v>10528.847127000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.924680</v>
+        <v>2.9246799999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.409100</v>
+        <v>-88.409099999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>10539.480847</v>
+        <v>10539.480847000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.927634</v>
+        <v>2.9276339999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.193000</v>
+        <v>-100.193</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>10550.493052</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.930693</v>
+        <v>2.9306930000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>1243.800000</v>
+        <v>1243.8</v>
       </c>
       <c r="AW6" s="1">
-        <v>-119.284000</v>
+        <v>-119.28400000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>10561.593492</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.933776</v>
+        <v>2.9337759999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1252.030000</v>
+        <v>1252.03</v>
       </c>
       <c r="BB6" s="1">
-        <v>-136.581000</v>
+        <v>-136.58099999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>10572.534780</v>
+        <v>10572.53478</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.936815</v>
+        <v>2.9368150000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1291.270000</v>
+        <v>1291.27</v>
       </c>
       <c r="BG6" s="1">
-        <v>-217.758000</v>
+        <v>-217.75800000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>10583.216085</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.939782</v>
+        <v>2.9397820000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1359.160000</v>
+        <v>1359.16</v>
       </c>
       <c r="BL6" s="1">
-        <v>-353.585000</v>
+        <v>-353.58499999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>10594.017465</v>
+        <v>10594.017465000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.942783</v>
+        <v>2.9427829999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1470.880000</v>
+        <v>1470.88</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.962000</v>
+        <v>-575.96199999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>10604.788585</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.945775</v>
+        <v>2.9457749999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1599.960000</v>
+        <v>1599.96</v>
       </c>
       <c r="BV6" s="1">
-        <v>-827.858000</v>
+        <v>-827.85799999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>10615.521019</v>
       </c>
       <c r="BY6" s="1">
-        <v>2.948756</v>
+        <v>2.9487559999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1750.240000</v>
+        <v>1750.24</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1103.540000</v>
+        <v>-1103.54</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>10627.352619</v>
+        <v>10627.352618999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.952042</v>
+        <v>2.9520420000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2165.180000</v>
+        <v>2165.1799999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1773.130000</v>
+        <v>-1773.13</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>10457.664274</v>
+        <v>10457.664274000001</v>
       </c>
       <c r="B7" s="1">
-        <v>2.904907</v>
+        <v>2.9049070000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1143.080000</v>
+        <v>1143.08</v>
       </c>
       <c r="D7" s="1">
-        <v>-256.596000</v>
+        <v>-256.596</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>10467.990973</v>
@@ -1781,450 +2197,450 @@
         <v>2.907775</v>
       </c>
       <c r="H7" s="1">
-        <v>1165.570000</v>
+        <v>1165.57</v>
       </c>
       <c r="I7" s="1">
-        <v>-215.185000</v>
+        <v>-215.185</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>10478.149536</v>
+        <v>10478.149536000001</v>
       </c>
       <c r="L7" s="1">
-        <v>2.910597</v>
+        <v>2.9105970000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1192.670000</v>
+        <v>1192.67</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.623000</v>
+        <v>-149.62299999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>10488.727250</v>
+        <v>10488.72725</v>
       </c>
       <c r="Q7" s="1">
         <v>2.913535</v>
       </c>
       <c r="R7" s="1">
-        <v>1200.260000</v>
+        <v>1200.26</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.565000</v>
+        <v>-127.565</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>10498.977542</v>
+        <v>10498.977542000001</v>
       </c>
       <c r="V7" s="1">
-        <v>2.916383</v>
+        <v>2.9163830000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1207.330000</v>
+        <v>1207.33</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.705000</v>
+        <v>-106.705</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>10508.818168</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.919116</v>
+        <v>2.9191159999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>1214.800000</v>
+        <v>1214.8</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.684200</v>
+        <v>-89.684200000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>10519.355178</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.922043</v>
+        <v>2.9220429999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1219.240000</v>
+        <v>1219.24</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.166100</v>
+        <v>-85.1661</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>10529.545025</v>
+        <v>10529.545024999999</v>
       </c>
       <c r="AK7" s="1">
         <v>2.924874</v>
       </c>
       <c r="AL7" s="1">
-        <v>1226.130000</v>
+        <v>1226.1300000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.476600</v>
+        <v>-88.476600000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>10539.857807</v>
       </c>
       <c r="AP7" s="1">
-        <v>2.927738</v>
+        <v>2.9277380000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.170000</v>
+        <v>-100.17</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>10550.882918</v>
+        <v>10550.882917999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.930801</v>
+        <v>2.9308010000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1243.780000</v>
+        <v>1243.78</v>
       </c>
       <c r="AW7" s="1">
-        <v>-119.278000</v>
+        <v>-119.27800000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>10561.951602</v>
+        <v>10561.951601999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>2.933875</v>
       </c>
       <c r="BA7" s="1">
-        <v>1252.030000</v>
+        <v>1252.03</v>
       </c>
       <c r="BB7" s="1">
-        <v>-136.577000</v>
+        <v>-136.577</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>10572.898804</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.936916</v>
+        <v>2.9369160000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1291.260000</v>
+        <v>1291.26</v>
       </c>
       <c r="BG7" s="1">
-        <v>-217.768000</v>
+        <v>-217.768</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>10583.894645</v>
       </c>
       <c r="BJ7" s="1">
-        <v>2.939971</v>
+        <v>2.9399709999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1359.180000</v>
+        <v>1359.18</v>
       </c>
       <c r="BL7" s="1">
-        <v>-353.577000</v>
+        <v>-353.577</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>10594.141491</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.942817</v>
+        <v>2.9428169999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1470.870000</v>
+        <v>1470.87</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.018000</v>
+        <v>-576.01800000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>10604.906365</v>
+        <v>10604.906365000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.945807</v>
+        <v>2.9458069999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1600.130000</v>
+        <v>1600.13</v>
       </c>
       <c r="BV7" s="1">
-        <v>-827.736000</v>
+        <v>-827.73599999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>10615.960475</v>
       </c>
       <c r="BY7" s="1">
-        <v>2.948878</v>
+        <v>2.9488780000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1750.230000</v>
+        <v>1750.23</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1103.610000</v>
+        <v>-1103.6099999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>10627.866443</v>
+        <v>10627.866443000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>2.952185</v>
+        <v>2.9521850000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2164.200000</v>
+        <v>2164.1999999999998</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1774.200000</v>
+        <v>-1774.2</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>10457.952677</v>
+        <v>10457.952676999999</v>
       </c>
       <c r="B8" s="1">
-        <v>2.904987</v>
+        <v>2.9049870000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1143.210000</v>
+        <v>1143.21</v>
       </c>
       <c r="D8" s="1">
-        <v>-256.671000</v>
+        <v>-256.67099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>10468.336222</v>
       </c>
       <c r="G8" s="1">
-        <v>2.907871</v>
+        <v>2.9078710000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1165.010000</v>
+        <v>1165.01</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.652000</v>
+        <v>-215.65199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>10478.493271</v>
+        <v>10478.493270999999</v>
       </c>
       <c r="L8" s="1">
-        <v>2.910693</v>
+        <v>2.9106930000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>1192.600000</v>
+        <v>1192.5999999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.532000</v>
+        <v>-149.53200000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>10489.074945</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.913632</v>
+        <v>2.9136320000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1200.210000</v>
+        <v>1200.21</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.521000</v>
+        <v>-127.521</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>10499.320809</v>
+        <v>10499.320809000001</v>
       </c>
       <c r="V8" s="1">
-        <v>2.916478</v>
+        <v>2.9164780000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1207.430000</v>
+        <v>1207.43</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.683000</v>
+        <v>-106.68300000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>10509.514055</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.919309</v>
+        <v>2.9193090000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1214.630000</v>
+        <v>1214.6300000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.759200</v>
+        <v>-89.759200000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>10519.719273</v>
+        <v>10519.719273000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>2.922144</v>
+        <v>2.9221439999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1219.230000</v>
+        <v>1219.23</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.136200</v>
+        <v>-85.136200000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>10529.892716</v>
       </c>
       <c r="AK8" s="1">
-        <v>2.924970</v>
+        <v>2.9249700000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1226.140000</v>
+        <v>1226.1400000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.446600</v>
+        <v>-88.446600000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>10540.248688</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.927847</v>
+        <v>2.9278469999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1233.940000</v>
+        <v>1233.94</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.194000</v>
+        <v>-100.194</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>10551.245495</v>
+        <v>10551.245494999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.930902</v>
+        <v>2.9309020000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1243.790000</v>
+        <v>1243.79</v>
       </c>
       <c r="AW8" s="1">
-        <v>-119.275000</v>
+        <v>-119.27500000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>10562.607809</v>
+        <v>10562.607808999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.934058</v>
+        <v>2.9340579999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1252.020000</v>
+        <v>1252.02</v>
       </c>
       <c r="BB8" s="1">
-        <v>-136.598000</v>
+        <v>-136.59800000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>10573.378434</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.937050</v>
+        <v>2.9370500000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1291.220000</v>
+        <v>1291.22</v>
       </c>
       <c r="BG8" s="1">
-        <v>-217.762000</v>
+        <v>-217.762</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>10584.001778</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.940000</v>
+        <v>2.94</v>
       </c>
       <c r="BK8" s="1">
-        <v>1359.170000</v>
+        <v>1359.17</v>
       </c>
       <c r="BL8" s="1">
-        <v>-353.585000</v>
+        <v>-353.58499999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>10594.540487</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.942928</v>
+        <v>2.9429280000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1470.890000</v>
+        <v>1470.89</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.985000</v>
+        <v>-575.98500000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>10605.343609</v>
@@ -2233,195 +2649,195 @@
         <v>2.945929</v>
       </c>
       <c r="BU8" s="1">
-        <v>1600.370000</v>
+        <v>1600.37</v>
       </c>
       <c r="BV8" s="1">
-        <v>-827.728000</v>
+        <v>-827.72799999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>10616.379594</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.948994</v>
+        <v>2.9489939999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1750.210000</v>
+        <v>1750.21</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1103.660000</v>
+        <v>-1103.6600000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>10628.384795</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.952329</v>
+        <v>2.9523290000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>2166.760000</v>
+        <v>2166.7600000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1774.400000</v>
+        <v>-1774.4</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>10458.296172</v>
       </c>
       <c r="B9" s="1">
-        <v>2.905082</v>
+        <v>2.9050820000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1143.060000</v>
+        <v>1143.06</v>
       </c>
       <c r="D9" s="1">
-        <v>-256.417000</v>
+        <v>-256.41699999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>10468.678925</v>
       </c>
       <c r="G9" s="1">
-        <v>2.907966</v>
+        <v>2.9079660000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1164.880000</v>
+        <v>1164.8800000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.968000</v>
+        <v>-215.96799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>10478.841953</v>
+        <v>10478.841952999999</v>
       </c>
       <c r="L9" s="1">
-        <v>2.910789</v>
+        <v>2.9107889999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>1192.570000</v>
+        <v>1192.57</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.449000</v>
+        <v>-149.44900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>10489.771297</v>
+        <v>10489.771296999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.913825</v>
+        <v>2.9138250000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1200.290000</v>
+        <v>1200.29</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.459000</v>
+        <v>-127.459</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>10500.010709</v>
       </c>
       <c r="V9" s="1">
-        <v>2.916670</v>
+        <v>2.9166699999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1207.400000</v>
+        <v>1207.4000000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.639000</v>
+        <v>-106.639</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>10509.863239</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.919406</v>
+        <v>2.9194059999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1214.630000</v>
+        <v>1214.6300000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.660700</v>
+        <v>-89.660700000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>10520.059993</v>
+        <v>10520.059993000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>2.922239</v>
+        <v>2.9222389999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1219.220000</v>
+        <v>1219.22</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.158500</v>
+        <v>-85.158500000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>10530.241868</v>
+        <v>10530.241867999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.925067</v>
+        <v>2.9250669999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.430500</v>
+        <v>-88.430499999999995</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>10540.909326</v>
+        <v>10540.909326000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>2.928030</v>
+        <v>2.9280300000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1233.930000</v>
+        <v>1233.93</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.189000</v>
+        <v>-100.18899999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>10551.928466</v>
+        <v>10551.928465999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.931091</v>
+        <v>2.9310909999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1243.800000</v>
+        <v>1243.8</v>
       </c>
       <c r="AW9" s="1">
-        <v>-119.286000</v>
+        <v>-119.286</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>10563.059168</v>
@@ -2430,73 +2846,73 @@
         <v>2.934183</v>
       </c>
       <c r="BA9" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="BB9" s="1">
-        <v>-136.620000</v>
+        <v>-136.62</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>10573.620978</v>
+        <v>10573.620978000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.937117</v>
+        <v>2.9371170000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG9" s="1">
-        <v>-217.724000</v>
+        <v>-217.72399999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>10584.375732</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.940104</v>
+        <v>2.9401039999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1359.180000</v>
+        <v>1359.18</v>
       </c>
       <c r="BL9" s="1">
-        <v>-353.593000</v>
+        <v>-353.59300000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>10594.960358</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.943045</v>
+        <v>2.9430450000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1470.870000</v>
+        <v>1470.87</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.942000</v>
+        <v>-575.94200000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>10605.771656</v>
+        <v>10605.771656000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.946048</v>
+        <v>2.9460480000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1600.520000</v>
+        <v>1600.52</v>
       </c>
       <c r="BV9" s="1">
-        <v>-827.846000</v>
+        <v>-827.846</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>10616.802185</v>
@@ -2505,165 +2921,165 @@
         <v>2.949112</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1750.310000</v>
+        <v>1750.31</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1103.750000</v>
+        <v>-1103.75</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>10628.924906</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.952479</v>
+        <v>2.9524789999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2164.830000</v>
+        <v>2164.83</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1773.170000</v>
+        <v>-1773.17</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>10458.637914</v>
+        <v>10458.637914000001</v>
       </c>
       <c r="B10" s="1">
-        <v>2.905177</v>
+        <v>2.9051770000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1143.270000</v>
+        <v>1143.27</v>
       </c>
       <c r="D10" s="1">
-        <v>-256.711000</v>
+        <v>-256.71100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>10469.366380</v>
+        <v>10469.366379999999</v>
       </c>
       <c r="G10" s="1">
-        <v>2.908157</v>
+        <v>2.9081570000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1164.800000</v>
+        <v>1164.8</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.350000</v>
+        <v>-215.35</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>10479.534367</v>
       </c>
       <c r="L10" s="1">
-        <v>2.910982</v>
+        <v>2.9109820000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>1192.440000</v>
+        <v>1192.44</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.318000</v>
+        <v>-149.31800000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>10490.122000</v>
+        <v>10490.121999999999</v>
       </c>
       <c r="Q10" s="1">
         <v>2.913923</v>
       </c>
       <c r="R10" s="1">
-        <v>1200.270000</v>
+        <v>1200.27</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.473000</v>
+        <v>-127.473</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>10500.422420</v>
+        <v>10500.422420000001</v>
       </c>
       <c r="V10" s="1">
-        <v>2.916784</v>
+        <v>2.9167839999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1207.420000</v>
+        <v>1207.42</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.738000</v>
+        <v>-106.738</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>10510.209479</v>
+        <v>10510.209478999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.919503</v>
+        <v>2.9195030000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1214.590000</v>
+        <v>1214.5899999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.508000</v>
+        <v>-89.507999999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>10520.709753</v>
+        <v>10520.709752999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>2.922419</v>
+        <v>2.9224190000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1219.220000</v>
+        <v>1219.22</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.167000</v>
+        <v>-85.167000000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>10530.883232</v>
       </c>
       <c r="AK10" s="1">
-        <v>2.925245</v>
+        <v>2.9252449999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.455500</v>
+        <v>-88.455500000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>10541.329470</v>
+        <v>10541.329470000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.928147</v>
+        <v>2.9281470000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1233.930000</v>
+        <v>1233.93</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.205000</v>
+        <v>-100.205</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>10552.376831</v>
@@ -2672,285 +3088,285 @@
         <v>2.931216</v>
       </c>
       <c r="AV10" s="1">
-        <v>1243.790000</v>
+        <v>1243.79</v>
       </c>
       <c r="AW10" s="1">
-        <v>-119.291000</v>
+        <v>-119.291</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>10563.415793</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.934282</v>
+        <v>2.9342820000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1252.020000</v>
+        <v>1252.02</v>
       </c>
       <c r="BB10" s="1">
-        <v>-136.602000</v>
+        <v>-136.602</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>10573.980578</v>
+        <v>10573.980578000001</v>
       </c>
       <c r="BE10" s="1">
         <v>2.937217</v>
       </c>
       <c r="BF10" s="1">
-        <v>1291.260000</v>
+        <v>1291.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-217.741000</v>
+        <v>-217.74100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>10584.749221</v>
       </c>
       <c r="BJ10" s="1">
-        <v>2.940208</v>
+        <v>2.9402080000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL10" s="1">
-        <v>-353.565000</v>
+        <v>-353.565</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>10595.373773</v>
+        <v>10595.373772999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>2.943159</v>
+        <v>2.9431590000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1470.900000</v>
+        <v>1470.9</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.930000</v>
+        <v>-575.92999999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>10606.195737</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.946165</v>
+        <v>2.9461650000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1600.610000</v>
+        <v>1600.61</v>
       </c>
       <c r="BV10" s="1">
-        <v>-827.928000</v>
+        <v>-827.928</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>10617.230729</v>
+        <v>10617.230729000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>2.949231</v>
+        <v>2.9492310000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1750.280000</v>
+        <v>1750.28</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1103.600000</v>
+        <v>-1103.5999999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>10629.462105</v>
+        <v>10629.462105000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.952628</v>
+        <v>2.9526279999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>2165.950000</v>
+        <v>2165.9499999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1775.970000</v>
+        <v>-1775.97</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>10459.319229</v>
+        <v>10459.319229000001</v>
       </c>
       <c r="B11" s="1">
-        <v>2.905366</v>
+        <v>2.9053659999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1143.030000</v>
+        <v>1143.03</v>
       </c>
       <c r="D11" s="1">
-        <v>-256.480000</v>
+        <v>-256.48</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>10469.710605</v>
       </c>
       <c r="G11" s="1">
-        <v>2.908253</v>
+        <v>2.9082530000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1165.360000</v>
+        <v>1165.3599999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-215.692000</v>
+        <v>-215.69200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>10479.881070</v>
+        <v>10479.881069999999</v>
       </c>
       <c r="L11" s="1">
-        <v>2.911078</v>
+        <v>2.9110779999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>1192.460000</v>
+        <v>1192.46</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.707000</v>
+        <v>-149.70699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>10490.470160</v>
+        <v>10490.470160000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.914019</v>
+        <v>2.9140190000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1200.280000</v>
+        <v>1200.28</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.472000</v>
+        <v>-127.47199999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>10500.711555</v>
       </c>
       <c r="V11" s="1">
-        <v>2.916864</v>
+        <v>2.9168639999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1207.430000</v>
+        <v>1207.43</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.602000</v>
+        <v>-106.602</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>10510.856725</v>
       </c>
       <c r="AA11" s="1">
-        <v>2.919682</v>
+        <v>2.9196819999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1214.720000</v>
+        <v>1214.72</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.736700</v>
+        <v>-89.736699999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>10521.096136</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.922527</v>
+        <v>2.9225270000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1219.220000</v>
+        <v>1219.22</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.169100</v>
+        <v>-85.1691</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>10531.285982</v>
+        <v>10531.285981999999</v>
       </c>
       <c r="AK11" s="1">
         <v>2.925357</v>
       </c>
       <c r="AL11" s="1">
-        <v>1226.140000</v>
+        <v>1226.1400000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.465300</v>
+        <v>-88.465299999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>10541.710862</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.928253</v>
+        <v>2.9282530000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1233.930000</v>
+        <v>1233.93</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.194000</v>
+        <v>-100.194</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>10552.739406</v>
+        <v>10552.739406000001</v>
       </c>
       <c r="AU11" s="1">
         <v>2.931317</v>
       </c>
       <c r="AV11" s="1">
-        <v>1243.810000</v>
+        <v>1243.81</v>
       </c>
       <c r="AW11" s="1">
-        <v>-119.290000</v>
+        <v>-119.29</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>10563.778368</v>
+        <v>10563.778367999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>2.934383</v>
       </c>
       <c r="BA11" s="1">
-        <v>1252.050000</v>
+        <v>1252.05</v>
       </c>
       <c r="BB11" s="1">
-        <v>-136.569000</v>
+        <v>-136.56899999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>10574.406641</v>
@@ -2959,210 +3375,210 @@
         <v>2.937335</v>
       </c>
       <c r="BF11" s="1">
-        <v>1291.240000</v>
+        <v>1291.24</v>
       </c>
       <c r="BG11" s="1">
-        <v>-217.768000</v>
+        <v>-217.768</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>10585.157427</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.940322</v>
+        <v>2.9403220000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1359.170000</v>
+        <v>1359.17</v>
       </c>
       <c r="BL11" s="1">
-        <v>-353.570000</v>
+        <v>-353.57</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>10595.781237</v>
+        <v>10595.781236999999</v>
       </c>
       <c r="BO11" s="1">
         <v>2.943273</v>
       </c>
       <c r="BP11" s="1">
-        <v>1470.920000</v>
+        <v>1470.92</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.976000</v>
+        <v>-575.976</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>10606.613863</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.946282</v>
+        <v>2.9462820000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1600.820000</v>
+        <v>1600.82</v>
       </c>
       <c r="BV11" s="1">
-        <v>-828.057000</v>
+        <v>-828.05700000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>10617.644393</v>
       </c>
       <c r="BY11" s="1">
-        <v>2.949346</v>
+        <v>2.9493459999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1750.330000</v>
+        <v>1750.33</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1103.520000</v>
+        <v>-1103.52</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>10630.004037</v>
+        <v>10630.004037000001</v>
       </c>
       <c r="CD11" s="1">
         <v>2.952779</v>
       </c>
       <c r="CE11" s="1">
-        <v>2166.040000</v>
+        <v>2166.04</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1773.320000</v>
+        <v>-1773.32</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>10459.663640</v>
+        <v>10459.663640000001</v>
       </c>
       <c r="B12" s="1">
         <v>2.905462</v>
       </c>
       <c r="C12" s="1">
-        <v>1143.080000</v>
+        <v>1143.08</v>
       </c>
       <c r="D12" s="1">
-        <v>-256.494000</v>
+        <v>-256.49400000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>10470.061275</v>
       </c>
       <c r="G12" s="1">
-        <v>2.908350</v>
+        <v>2.90835</v>
       </c>
       <c r="H12" s="1">
-        <v>1165.130000</v>
+        <v>1165.1300000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-215.857000</v>
+        <v>-215.857</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>10480.225294</v>
       </c>
       <c r="L12" s="1">
-        <v>2.911174</v>
+        <v>2.9111739999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1192.510000</v>
+        <v>1192.51</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.243000</v>
+        <v>-149.24299999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>10491.122434</v>
+        <v>10491.122434000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.914201</v>
+        <v>2.9142009999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1200.300000</v>
+        <v>1200.3</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.528000</v>
+        <v>-127.52800000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>10501.142580</v>
+        <v>10501.14258</v>
       </c>
       <c r="V12" s="1">
-        <v>2.916984</v>
+        <v>2.9169839999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1207.440000</v>
+        <v>1207.44</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.671000</v>
+        <v>-106.67100000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>10511.256998</v>
+        <v>10511.256998000001</v>
       </c>
       <c r="AA12" s="1">
         <v>2.919794</v>
       </c>
       <c r="AB12" s="1">
-        <v>1214.860000</v>
+        <v>1214.8599999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.617300</v>
+        <v>-89.6173</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>10521.442343</v>
+        <v>10521.442343000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.922623</v>
+        <v>2.9226230000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1219.220000</v>
+        <v>1219.22</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.170800</v>
+        <v>-85.1708</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>10531.634665</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.925454</v>
+        <v>2.9254540000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.413200</v>
+        <v>-88.413200000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>10542.069964</v>
@@ -3171,497 +3587,497 @@
         <v>2.928353</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.154000</v>
+        <v>-100.154</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>10553.102974</v>
+        <v>10553.102973999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.931417</v>
+        <v>2.9314170000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1243.790000</v>
+        <v>1243.79</v>
       </c>
       <c r="AW12" s="1">
-        <v>-119.284000</v>
+        <v>-119.28400000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>10564.195038</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.934499</v>
+        <v>2.9344990000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1252.030000</v>
+        <v>1252.03</v>
       </c>
       <c r="BB12" s="1">
-        <v>-136.594000</v>
+        <v>-136.59399999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>10574.705233</v>
+        <v>10574.705233000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.937418</v>
+        <v>2.9374180000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG12" s="1">
-        <v>-217.772000</v>
+        <v>-217.77199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>10585.502148</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.940417</v>
+        <v>2.9404170000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1359.140000</v>
+        <v>1359.14</v>
       </c>
       <c r="BL12" s="1">
-        <v>-353.604000</v>
+        <v>-353.60399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>10596.178534</v>
+        <v>10596.178534000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.943383</v>
+        <v>2.9433829999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1470.890000</v>
+        <v>1470.89</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.993000</v>
+        <v>-575.99300000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>10607.043931</v>
       </c>
       <c r="BT12" s="1">
-        <v>2.946401</v>
+        <v>2.9464009999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1600.710000</v>
+        <v>1600.71</v>
       </c>
       <c r="BV12" s="1">
-        <v>-828.258000</v>
+        <v>-828.25800000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>10618.102200</v>
+        <v>10618.102199999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.949473</v>
+        <v>2.9494729999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1750.180000</v>
+        <v>1750.18</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1103.700000</v>
+        <v>-1103.7</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>10630.544376</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.952929</v>
+        <v>2.9529290000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2164.520000</v>
+        <v>2164.52</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1774.730000</v>
+        <v>-1774.73</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>10460.005419</v>
+        <v>10460.005418999999</v>
       </c>
       <c r="B13" s="1">
-        <v>2.905557</v>
+        <v>2.9055569999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1143.010000</v>
+        <v>1143.01</v>
       </c>
       <c r="D13" s="1">
-        <v>-256.688000</v>
+        <v>-256.68799999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>10470.692224</v>
       </c>
       <c r="G13" s="1">
-        <v>2.908526</v>
+        <v>2.9085260000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1164.800000</v>
+        <v>1164.8</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.523000</v>
+        <v>-215.523</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>10480.884017</v>
       </c>
       <c r="L13" s="1">
-        <v>2.911357</v>
+        <v>2.9113570000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1192.300000</v>
+        <v>1192.3</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.500000</v>
+        <v>-149.5</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>10491.516511</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.914310</v>
+        <v>2.91431</v>
       </c>
       <c r="R13" s="1">
-        <v>1200.230000</v>
+        <v>1200.23</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.503000</v>
+        <v>-127.503</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>10501.413891</v>
       </c>
       <c r="V13" s="1">
-        <v>2.917059</v>
+        <v>2.9170590000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1207.500000</v>
+        <v>1207.5</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.626000</v>
+        <v>-106.626</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>10511.606676</v>
+        <v>10511.606675999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.919891</v>
+        <v>2.9198909999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1215.270000</v>
+        <v>1215.27</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.731800</v>
+        <v>-89.731800000000007</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>10521.785106</v>
+        <v>10521.785105999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.922718</v>
+        <v>2.9227180000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1219.170000</v>
+        <v>1219.17</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.154600</v>
+        <v>-85.154600000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>10531.985802</v>
+        <v>10531.985801999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.925552</v>
+        <v>2.9255520000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1226.190000</v>
+        <v>1226.19</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.455200</v>
+        <v>-88.455200000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>10542.480155</v>
+        <v>10542.480154999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.928467</v>
+        <v>2.9284669999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1233.940000</v>
+        <v>1233.94</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.163000</v>
+        <v>-100.163</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>10553.516637</v>
+        <v>10553.516637000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.931532</v>
+        <v>2.9315319999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1243.790000</v>
+        <v>1243.79</v>
       </c>
       <c r="AW13" s="1">
-        <v>-119.295000</v>
+        <v>-119.295</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>10564.492607</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.934581</v>
+        <v>2.9345810000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1252.030000</v>
+        <v>1252.03</v>
       </c>
       <c r="BB13" s="1">
-        <v>-136.579000</v>
+        <v>-136.57900000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>10575.065328</v>
+        <v>10575.065328000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.937518</v>
+        <v>2.9375179999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1291.230000</v>
+        <v>1291.23</v>
       </c>
       <c r="BG13" s="1">
-        <v>-217.745000</v>
+        <v>-217.745</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>10585.883074</v>
+        <v>10585.883073999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.940523</v>
+        <v>2.9405230000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL13" s="1">
-        <v>-353.572000</v>
+        <v>-353.572</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>10596.600164</v>
+        <v>10596.600163999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.943500</v>
+        <v>2.9434999999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1470.910000</v>
+        <v>1470.91</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.916000</v>
+        <v>-575.91600000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>10607.453589</v>
+        <v>10607.453589000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.946515</v>
+        <v>2.9465150000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1600.790000</v>
+        <v>1600.79</v>
       </c>
       <c r="BV13" s="1">
-        <v>-828.502000</v>
+        <v>-828.50199999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>10618.547607</v>
       </c>
       <c r="BY13" s="1">
-        <v>2.949597</v>
+        <v>2.9495969999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1750.180000</v>
+        <v>1750.18</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1103.670000</v>
+        <v>-1103.67</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>10631.086472</v>
+        <v>10631.086472000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.953080</v>
+        <v>2.9530799999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2166.350000</v>
+        <v>2166.35</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1775.350000</v>
+        <v>-1775.35</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>10460.641793</v>
+        <v>10460.641793000001</v>
       </c>
       <c r="B14" s="1">
-        <v>2.905734</v>
+        <v>2.9057339999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>1143.040000</v>
+        <v>1143.04</v>
       </c>
       <c r="D14" s="1">
-        <v>-256.731000</v>
+        <v>-256.73099999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>10471.090474</v>
+        <v>10471.090474000001</v>
       </c>
       <c r="G14" s="1">
         <v>2.908636</v>
       </c>
       <c r="H14" s="1">
-        <v>1164.150000</v>
+        <v>1164.1500000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.159000</v>
+        <v>-215.15899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>10481.264942</v>
       </c>
       <c r="L14" s="1">
-        <v>2.911462</v>
+        <v>2.9114620000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1192.350000</v>
+        <v>1192.3499999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.487000</v>
+        <v>-149.48699999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>10491.867392</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.914408</v>
+        <v>2.9144079999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1200.190000</v>
+        <v>1200.19</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.484000</v>
+        <v>-127.48399999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>10501.758609</v>
       </c>
       <c r="V14" s="1">
-        <v>2.917155</v>
+        <v>2.9171550000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1207.410000</v>
+        <v>1207.4100000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.681000</v>
+        <v>-106.681</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>10511.954868</v>
+        <v>10511.954868000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.919987</v>
+        <v>2.9199869999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1214.730000</v>
+        <v>1214.73</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.617900</v>
+        <v>-89.617900000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>10522.204199</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.922834</v>
+        <v>2.9228339999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1219.210000</v>
+        <v>1219.21</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.104600</v>
+        <v>-85.104600000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>10532.392553</v>
@@ -3670,88 +4086,88 @@
         <v>2.925665</v>
       </c>
       <c r="AL14" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.454800</v>
+        <v>-88.454800000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>10542.789163</v>
+        <v>10542.789162999999</v>
       </c>
       <c r="AP14" s="1">
         <v>2.928553</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.196000</v>
+        <v>-100.196</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>10553.833613</v>
+        <v>10553.833613000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.931620</v>
+        <v>2.9316200000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1243.760000</v>
+        <v>1243.76</v>
       </c>
       <c r="AW14" s="1">
-        <v>-119.281000</v>
+        <v>-119.28100000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>10564.851247</v>
+        <v>10564.851247000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.934681</v>
+        <v>2.9346809999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="BB14" s="1">
-        <v>-136.599000</v>
+        <v>-136.59899999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>10575.426416</v>
       </c>
       <c r="BE14" s="1">
-        <v>2.937618</v>
+        <v>2.9376180000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1291.200000</v>
+        <v>1291.2</v>
       </c>
       <c r="BG14" s="1">
-        <v>-217.757000</v>
+        <v>-217.75700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>10586.272962</v>
+        <v>10586.272961999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.940631</v>
+        <v>2.9406310000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1359.170000</v>
+        <v>1359.17</v>
       </c>
       <c r="BL14" s="1">
-        <v>-353.583000</v>
+        <v>-353.58300000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>10597.007877</v>
@@ -3760,135 +4176,135 @@
         <v>2.943613</v>
       </c>
       <c r="BP14" s="1">
-        <v>1470.920000</v>
+        <v>1470.92</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.931000</v>
+        <v>-575.93100000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>10607.896551</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.946638</v>
+        <v>2.9466380000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1600.690000</v>
+        <v>1600.69</v>
       </c>
       <c r="BV14" s="1">
-        <v>-828.550000</v>
+        <v>-828.55</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>10619.003463</v>
+        <v>10619.003462999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.949723</v>
+        <v>2.9497230000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1750.150000</v>
+        <v>1750.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1103.560000</v>
+        <v>-1103.56</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>10631.624169</v>
+        <v>10631.624169000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>2.953229</v>
+        <v>2.9532289999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2164.760000</v>
+        <v>2164.7600000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1772.710000</v>
+        <v>-1772.71</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>10461.030615</v>
       </c>
       <c r="B15" s="1">
-        <v>2.905842</v>
+        <v>2.9058419999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1143.150000</v>
+        <v>1143.1500000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-256.541000</v>
+        <v>-256.541</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>10471.440153</v>
       </c>
       <c r="G15" s="1">
-        <v>2.908733</v>
+        <v>2.9087329999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.120000</v>
+        <v>1165.1199999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-215.749000</v>
+        <v>-215.749</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>10481.609132</v>
       </c>
       <c r="L15" s="1">
-        <v>2.911558</v>
+        <v>2.9115579999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1192.630000</v>
+        <v>1192.6300000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.794000</v>
+        <v>-149.79400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>10492.212639</v>
+        <v>10492.212638999999</v>
       </c>
       <c r="Q15" s="1">
         <v>2.914504</v>
       </c>
       <c r="R15" s="1">
-        <v>1200.280000</v>
+        <v>1200.28</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.455000</v>
+        <v>-127.455</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>10502.175281</v>
       </c>
       <c r="V15" s="1">
-        <v>2.917271</v>
+        <v>2.9172709999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1207.470000</v>
+        <v>1207.47</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.660000</v>
+        <v>-106.66</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>10512.368041</v>
@@ -3897,118 +4313,118 @@
         <v>2.920102</v>
       </c>
       <c r="AB15" s="1">
-        <v>1214.610000</v>
+        <v>1214.6099999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.762900</v>
+        <v>-89.762900000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>10522.485961</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.922913</v>
+        <v>2.9229129999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1219.200000</v>
+        <v>1219.2</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.148600</v>
+        <v>-85.148600000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>10532.690616</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.925747</v>
+        <v>2.9257469999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1226.180000</v>
+        <v>1226.18</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.443400</v>
+        <v>-88.443399999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>10543.149259</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.928653</v>
+        <v>2.9286530000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1233.910000</v>
+        <v>1233.9100000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.216000</v>
+        <v>-100.21599999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>10554.219004</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.931728</v>
+        <v>2.9317280000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1243.780000</v>
+        <v>1243.78</v>
       </c>
       <c r="AW15" s="1">
-        <v>-119.283000</v>
+        <v>-119.283</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>10565.210317</v>
+        <v>10565.210316999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>2.934781</v>
+        <v>2.9347810000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="BB15" s="1">
-        <v>-136.603000</v>
+        <v>-136.60300000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>10576.149087</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.937819</v>
+        <v>2.9378190000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1291.250000</v>
+        <v>1291.25</v>
       </c>
       <c r="BG15" s="1">
-        <v>-217.759000</v>
+        <v>-217.75899999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>10587.023378</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.940840</v>
+        <v>2.9408400000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1359.150000</v>
+        <v>1359.15</v>
       </c>
       <c r="BL15" s="1">
-        <v>-353.604000</v>
+        <v>-353.60399999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>10597.416051</v>
@@ -4017,90 +4433,90 @@
         <v>2.943727</v>
       </c>
       <c r="BP15" s="1">
-        <v>1470.870000</v>
+        <v>1470.87</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.980000</v>
+        <v>-575.98</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>10608.311702</v>
+        <v>10608.311702000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>2.946753</v>
+        <v>2.9467530000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1600.480000</v>
+        <v>1600.48</v>
       </c>
       <c r="BV15" s="1">
-        <v>-828.599000</v>
+        <v>-828.59900000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>10619.452806</v>
+        <v>10619.452805999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.949848</v>
+        <v>2.9498479999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1750.190000</v>
+        <v>1750.19</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1103.660000</v>
+        <v>-1103.6600000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>10632.474277</v>
+        <v>10632.474276999999</v>
       </c>
       <c r="CD15" s="1">
         <v>2.953465</v>
       </c>
       <c r="CE15" s="1">
-        <v>2166.610000</v>
+        <v>2166.61</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1774.280000</v>
+        <v>-1774.28</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>10461.374866</v>
       </c>
       <c r="B16" s="1">
-        <v>2.905937</v>
+        <v>2.9059370000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>1143.310000</v>
+        <v>1143.31</v>
       </c>
       <c r="D16" s="1">
-        <v>-256.522000</v>
+        <v>-256.52199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>10471.782890</v>
+        <v>10471.78289</v>
       </c>
       <c r="G16" s="1">
-        <v>2.908829</v>
+        <v>2.9088289999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1165.380000</v>
+        <v>1165.3800000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.589000</v>
+        <v>-215.589</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>10481.954844</v>
@@ -4109,270 +4525,270 @@
         <v>2.911654</v>
       </c>
       <c r="M16" s="1">
-        <v>1192.540000</v>
+        <v>1192.54</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.514000</v>
+        <v>-149.51400000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>10492.622797</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.914617</v>
+        <v>2.9146169999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1200.270000</v>
+        <v>1200.27</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.449000</v>
+        <v>-127.449</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>10502.455986</v>
+        <v>10502.455986000001</v>
       </c>
       <c r="V16" s="1">
-        <v>2.917349</v>
+        <v>2.9173490000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1207.400000</v>
+        <v>1207.4000000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.644000</v>
+        <v>-106.64400000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>10512.662695</v>
+        <v>10512.662695000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.920184</v>
+        <v>2.9201839999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1214.540000</v>
+        <v>1214.54</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.610200</v>
+        <v>-89.610200000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>10522.829157</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.923008</v>
+        <v>2.9230079999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1219.220000</v>
+        <v>1219.22</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.169000</v>
+        <v>-85.168999999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>10533.040296</v>
+        <v>10533.040295999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>2.925845</v>
+        <v>2.9258449999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1226.160000</v>
+        <v>1226.1600000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.431600</v>
+        <v>-88.431600000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>10543.509386</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.928753</v>
+        <v>2.9287529999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.209000</v>
+        <v>-100.209</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>10554.874722</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.931910</v>
+        <v>2.9319099999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1243.770000</v>
+        <v>1243.77</v>
       </c>
       <c r="AW16" s="1">
-        <v>-119.294000</v>
+        <v>-119.294</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>10565.928559</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.934980</v>
+        <v>2.9349799999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1252.030000</v>
+        <v>1252.03</v>
       </c>
       <c r="BB16" s="1">
-        <v>-136.612000</v>
+        <v>-136.61199999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>10576.537487</v>
       </c>
       <c r="BE16" s="1">
-        <v>2.937927</v>
+        <v>2.9379270000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1291.260000</v>
+        <v>1291.26</v>
       </c>
       <c r="BG16" s="1">
-        <v>-217.757000</v>
+        <v>-217.75700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>10587.426624</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.940952</v>
+        <v>2.9409519999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1359.180000</v>
+        <v>1359.18</v>
       </c>
       <c r="BL16" s="1">
-        <v>-353.589000</v>
+        <v>-353.589</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>10597.813874</v>
+        <v>10597.813873999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>2.943837</v>
+        <v>2.9438369999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1470.920000</v>
+        <v>1470.92</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.944000</v>
+        <v>-575.94399999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>10609.021480</v>
+        <v>10609.021479999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>2.946950</v>
+        <v>2.9469500000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1600.400000</v>
+        <v>1600.4</v>
       </c>
       <c r="BV16" s="1">
-        <v>-828.653000</v>
+        <v>-828.65300000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>10620.179445</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.950050</v>
+        <v>2.9500500000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1750.250000</v>
+        <v>1750.25</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1103.610000</v>
+        <v>-1103.6099999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>10632.705909</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.953529</v>
+        <v>2.9535290000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2166.990000</v>
+        <v>2166.9899999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1775.040000</v>
+        <v>-1775.04</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>10461.718107</v>
+        <v>10461.718107000001</v>
       </c>
       <c r="B17" s="1">
-        <v>2.906033</v>
+        <v>2.9060329999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1143.200000</v>
+        <v>1143.2</v>
       </c>
       <c r="D17" s="1">
-        <v>-256.885000</v>
+        <v>-256.88499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>10472.203992</v>
+        <v>10472.203992000001</v>
       </c>
       <c r="G17" s="1">
-        <v>2.908946</v>
+        <v>2.9089459999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>1164.400000</v>
+        <v>1164.4000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.786000</v>
+        <v>-215.786</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>10482.397772</v>
       </c>
       <c r="L17" s="1">
-        <v>2.911777</v>
+        <v>2.9117769999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1192.530000</v>
+        <v>1192.53</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.941000</v>
+        <v>-149.941</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>10492.923873</v>
@@ -4381,88 +4797,88 @@
         <v>2.914701</v>
       </c>
       <c r="R17" s="1">
-        <v>1200.340000</v>
+        <v>1200.3399999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.521000</v>
+        <v>-127.521</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>10502.798224</v>
       </c>
       <c r="V17" s="1">
-        <v>2.917444</v>
+        <v>2.9174440000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1207.430000</v>
+        <v>1207.43</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.742000</v>
+        <v>-106.742</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>10513.012338</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.920281</v>
+        <v>2.9202810000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1214.490000</v>
+        <v>1214.49</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.676900</v>
+        <v>-89.676900000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>10523.169941</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.923103</v>
+        <v>2.9231029999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1219.240000</v>
+        <v>1219.24</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.164100</v>
+        <v>-85.164100000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>10533.391960</v>
+        <v>10533.391960000001</v>
       </c>
       <c r="AK17" s="1">
         <v>2.925942</v>
       </c>
       <c r="AL17" s="1">
-        <v>1226.190000</v>
+        <v>1226.19</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.460600</v>
+        <v>-88.460599999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>10544.231561</v>
+        <v>10544.231561000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.928953</v>
+        <v>2.9289529999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.157000</v>
+        <v>-100.157</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>10555.315628</v>
@@ -4471,43 +4887,43 @@
         <v>2.932032</v>
       </c>
       <c r="AV17" s="1">
-        <v>1243.770000</v>
+        <v>1243.77</v>
       </c>
       <c r="AW17" s="1">
-        <v>-119.297000</v>
+        <v>-119.297</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>10566.289116</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.935080</v>
+        <v>2.9350800000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="BB17" s="1">
-        <v>-136.593000</v>
+        <v>-136.59299999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>10576.898046</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.938027</v>
+        <v>2.9380269999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1291.230000</v>
+        <v>1291.23</v>
       </c>
       <c r="BG17" s="1">
-        <v>-217.743000</v>
+        <v>-217.74299999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>10587.799647</v>
@@ -4516,333 +4932,333 @@
         <v>2.941055</v>
       </c>
       <c r="BK17" s="1">
-        <v>1359.170000</v>
+        <v>1359.17</v>
       </c>
       <c r="BL17" s="1">
-        <v>-353.580000</v>
+        <v>-353.58</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>10598.531589</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.944037</v>
+        <v>2.9440369999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1470.900000</v>
+        <v>1470.9</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.947000</v>
+        <v>-575.947</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>10609.156865</v>
+        <v>10609.156865000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.946988</v>
+        <v>2.9469880000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1600.050000</v>
+        <v>1600.05</v>
       </c>
       <c r="BV17" s="1">
-        <v>-828.667000</v>
+        <v>-828.66700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>10620.321600</v>
+        <v>10620.321599999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.950089</v>
+        <v>2.9500890000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1750.340000</v>
+        <v>1750.34</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1103.480000</v>
+        <v>-1103.48</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>10633.222244</v>
+        <v>10633.222244000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.953673</v>
+        <v>2.9536730000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2165.880000</v>
+        <v>2165.88</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1773.010000</v>
+        <v>-1773.01</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>10462.127307</v>
+        <v>10462.127307000001</v>
       </c>
       <c r="B18" s="1">
-        <v>2.906146</v>
+        <v>2.9061460000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1143.090000</v>
+        <v>1143.0899999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-256.643000</v>
+        <v>-256.64299999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>10472.475800</v>
+        <v>10472.4758</v>
       </c>
       <c r="G18" s="1">
-        <v>2.909021</v>
+        <v>2.9090210000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1165.630000</v>
+        <v>1165.6300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.478000</v>
+        <v>-215.47800000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>10483.039124</v>
+        <v>10483.039124000001</v>
       </c>
       <c r="L18" s="1">
-        <v>2.911955</v>
+        <v>2.9119549999999998</v>
       </c>
       <c r="M18" s="1">
-        <v>1192.550000</v>
+        <v>1192.55</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.599000</v>
+        <v>-149.59899999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>10493.269613</v>
       </c>
       <c r="Q18" s="1">
-        <v>2.914797</v>
+        <v>2.9147970000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1200.310000</v>
+        <v>1200.31</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.551000</v>
+        <v>-127.551</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>10503.140006</v>
       </c>
       <c r="V18" s="1">
-        <v>2.917539</v>
+        <v>2.9175390000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1207.300000</v>
+        <v>1207.3</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.732000</v>
+        <v>-106.732</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>10513.362018</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.920378</v>
+        <v>2.9203779999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1214.630000</v>
+        <v>1214.6300000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.603500</v>
+        <v>-89.603499999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>10523.858356</v>
+        <v>10523.858356000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.923294</v>
+        <v>2.9232939999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1219.240000</v>
+        <v>1219.24</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.167000</v>
+        <v>-85.167000000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>10534.086391</v>
+        <v>10534.086391000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>2.926135</v>
+        <v>2.9261349999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1226.140000</v>
+        <v>1226.1400000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.463100</v>
+        <v>-88.463099999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>10544.593147</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.929054</v>
+        <v>2.9290539999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1233.960000</v>
+        <v>1233.96</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.189000</v>
+        <v>-100.18899999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>10555.679194</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.932133</v>
+        <v>2.9321329999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1243.770000</v>
+        <v>1243.77</v>
       </c>
       <c r="AW18" s="1">
-        <v>-119.289000</v>
+        <v>-119.289</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>10566.647264</v>
+        <v>10566.647263999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>2.935180</v>
+        <v>2.9351799999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="BB18" s="1">
-        <v>-136.599000</v>
+        <v>-136.59899999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>10577.562717</v>
+        <v>10577.562717000001</v>
       </c>
       <c r="BE18" s="1">
         <v>2.938212</v>
       </c>
       <c r="BF18" s="1">
-        <v>1291.230000</v>
+        <v>1291.23</v>
       </c>
       <c r="BG18" s="1">
-        <v>-217.736000</v>
+        <v>-217.73599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>10588.475168</v>
+        <v>10588.475168000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.941243</v>
+        <v>2.9412430000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1359.170000</v>
+        <v>1359.17</v>
       </c>
       <c r="BL18" s="1">
-        <v>-353.530000</v>
+        <v>-353.53</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>10598.656853</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.944071</v>
+        <v>2.9440710000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1470.880000</v>
+        <v>1470.88</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.961000</v>
+        <v>-575.96100000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>10609.595315</v>
       </c>
       <c r="BT18" s="1">
-        <v>2.947110</v>
+        <v>2.9471099999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1599.920000</v>
+        <v>1599.92</v>
       </c>
       <c r="BV18" s="1">
-        <v>-828.551000</v>
+        <v>-828.55100000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>10620.749844</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.950208</v>
+        <v>2.9502079999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1750.200000</v>
+        <v>1750.2</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1103.700000</v>
+        <v>-1103.7</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>10633.742051</v>
+        <v>10633.742050999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.953817</v>
+        <v>2.9538169999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2164.490000</v>
+        <v>2164.4899999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1775.480000</v>
+        <v>-1775.48</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>10462.419909</v>
       </c>
@@ -4850,28 +5266,28 @@
         <v>2.906228</v>
       </c>
       <c r="C19" s="1">
-        <v>1143.180000</v>
+        <v>1143.18</v>
       </c>
       <c r="D19" s="1">
-        <v>-256.541000</v>
+        <v>-256.541</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>10472.821544</v>
       </c>
       <c r="G19" s="1">
-        <v>2.909117</v>
+        <v>2.9091170000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1164.870000</v>
+        <v>1164.8699999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.688000</v>
+        <v>-215.68799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>10483.362025</v>
@@ -4880,208 +5296,208 @@
         <v>2.912045</v>
       </c>
       <c r="M19" s="1">
-        <v>1192.740000</v>
+        <v>1192.74</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.647000</v>
+        <v>-149.64699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>10493.616780</v>
+        <v>10493.61678</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.914894</v>
+        <v>2.9148939999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1200.220000</v>
+        <v>1200.22</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.567000</v>
+        <v>-127.56699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>10503.831391</v>
       </c>
       <c r="V19" s="1">
-        <v>2.917731</v>
+        <v>2.9177309999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1207.440000</v>
+        <v>1207.44</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.573000</v>
+        <v>-106.57299999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>10514.054960</v>
+        <v>10514.054959999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.920571</v>
+        <v>2.9205709999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1214.640000</v>
+        <v>1214.6400000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.577000</v>
+        <v>-89.576999999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>10524.203571</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.923390</v>
+        <v>2.9233899999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1219.230000</v>
+        <v>1219.23</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.132800</v>
+        <v>-85.132800000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>10534.434088</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.926232</v>
+        <v>2.9262320000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1226.160000</v>
+        <v>1226.1600000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.423900</v>
+        <v>-88.423900000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>10544.951720</v>
+        <v>10544.951719999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.929153</v>
+        <v>2.9291529999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1233.990000</v>
+        <v>1233.99</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.203000</v>
+        <v>-100.203</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>10556.349785</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.932319</v>
+        <v>2.9323190000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1243.760000</v>
+        <v>1243.76</v>
       </c>
       <c r="AW19" s="1">
-        <v>-119.286000</v>
+        <v>-119.286</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>10567.313883</v>
+        <v>10567.313883000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>2.935365</v>
       </c>
       <c r="BA19" s="1">
-        <v>1252.070000</v>
+        <v>1252.07</v>
       </c>
       <c r="BB19" s="1">
-        <v>-136.575000</v>
+        <v>-136.57499999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>10578.015534</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.938338</v>
+        <v>2.9383379999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1291.220000</v>
+        <v>1291.22</v>
       </c>
       <c r="BG19" s="1">
-        <v>-217.790000</v>
+        <v>-217.79</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>10588.587265</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.941274</v>
+        <v>2.9412739999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1359.120000</v>
+        <v>1359.12</v>
       </c>
       <c r="BL19" s="1">
-        <v>-353.576000</v>
+        <v>-353.57600000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>10599.053842</v>
+        <v>10599.053841999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.944182</v>
+        <v>2.9441820000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1470.920000</v>
+        <v>1470.92</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.001000</v>
+        <v>-576.00099999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>10610.019395</v>
+        <v>10610.019394999999</v>
       </c>
       <c r="BT19" s="1">
         <v>2.947228</v>
       </c>
       <c r="BU19" s="1">
-        <v>1599.800000</v>
+        <v>1599.8</v>
       </c>
       <c r="BV19" s="1">
-        <v>-828.387000</v>
+        <v>-828.38699999999994</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>10621.194756</v>
+        <v>10621.194756000001</v>
       </c>
       <c r="BY19" s="1">
         <v>2.950332</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1750.240000</v>
+        <v>1750.24</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1103.480000</v>
+        <v>-1103.48</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>10634.280739</v>
@@ -5090,135 +5506,135 @@
         <v>2.953967</v>
       </c>
       <c r="CE19" s="1">
-        <v>2166.420000</v>
+        <v>2166.42</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1773.890000</v>
+        <v>-1773.89</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>10462.757686</v>
+        <v>10462.757686000001</v>
       </c>
       <c r="B20" s="1">
-        <v>2.906322</v>
+        <v>2.9063219999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1143.080000</v>
+        <v>1143.08</v>
       </c>
       <c r="D20" s="1">
-        <v>-256.345000</v>
+        <v>-256.34500000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>10473.168713</v>
+        <v>10473.168712999999</v>
       </c>
       <c r="G20" s="1">
         <v>2.909214</v>
       </c>
       <c r="H20" s="1">
-        <v>1164.340000</v>
+        <v>1164.3399999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.999000</v>
+        <v>-215.999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>10484.054409</v>
       </c>
       <c r="L20" s="1">
-        <v>2.912237</v>
+        <v>2.9122370000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1192.650000</v>
+        <v>1192.6500000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.121000</v>
+        <v>-150.12100000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>10494.316636</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.915088</v>
+        <v>2.9150879999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1200.220000</v>
+        <v>1200.22</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.571000</v>
+        <v>-127.571</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>10504.173630</v>
+        <v>10504.173629999999</v>
       </c>
       <c r="V20" s="1">
-        <v>2.917826</v>
+        <v>2.9178259999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1207.440000</v>
+        <v>1207.44</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.730000</v>
+        <v>-106.73</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>10514.405639</v>
+        <v>10514.405639000001</v>
       </c>
       <c r="AA20" s="1">
         <v>2.920668</v>
       </c>
       <c r="AB20" s="1">
-        <v>1214.800000</v>
+        <v>1214.8</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.626900</v>
+        <v>-89.626900000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>10524.546314</v>
+        <v>10524.546313999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.923485</v>
+        <v>2.9234849999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1219.190000</v>
+        <v>1219.19</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.167500</v>
+        <v>-85.167500000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>10534.784266</v>
+        <v>10534.784266000001</v>
       </c>
       <c r="AK20" s="1">
         <v>2.926329</v>
       </c>
       <c r="AL20" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.473500</v>
+        <v>-88.473500000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>10545.617353</v>
@@ -5227,58 +5643,58 @@
         <v>2.929338</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1233.940000</v>
+        <v>1233.94</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.176000</v>
+        <v>-100.176</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>10556.809615</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.932447</v>
+        <v>2.9324469999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1243.760000</v>
+        <v>1243.76</v>
       </c>
       <c r="AW20" s="1">
-        <v>-119.306000</v>
+        <v>-119.306</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>10567.757276</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.935488</v>
+        <v>2.9354879999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1252.070000</v>
+        <v>1252.07</v>
       </c>
       <c r="BB20" s="1">
-        <v>-136.576000</v>
+        <v>-136.57599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>10578.377116</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.938438</v>
+        <v>2.9384380000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1291.270000</v>
+        <v>1291.27</v>
       </c>
       <c r="BG20" s="1">
-        <v>-217.749000</v>
+        <v>-217.749</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>10588.953807</v>
@@ -5287,13 +5703,13 @@
         <v>2.941376</v>
       </c>
       <c r="BK20" s="1">
-        <v>1359.190000</v>
+        <v>1359.19</v>
       </c>
       <c r="BL20" s="1">
-        <v>-353.618000</v>
+        <v>-353.61799999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>10599.476434</v>
@@ -5302,43 +5718,43 @@
         <v>2.944299</v>
       </c>
       <c r="BP20" s="1">
-        <v>1470.900000</v>
+        <v>1470.9</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.020000</v>
+        <v>-576.02</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>10610.432593</v>
       </c>
       <c r="BT20" s="1">
-        <v>2.947342</v>
+        <v>2.9473419999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1599.830000</v>
+        <v>1599.83</v>
       </c>
       <c r="BV20" s="1">
-        <v>-828.105000</v>
+        <v>-828.10500000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>10621.628259</v>
+        <v>10621.628258999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.950452</v>
+        <v>2.9504519999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1750.230000</v>
+        <v>1750.23</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1103.620000</v>
+        <v>-1103.6199999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>10634.819361</v>
@@ -5347,30 +5763,30 @@
         <v>2.954116</v>
       </c>
       <c r="CE20" s="1">
-        <v>2164.360000</v>
+        <v>2164.36</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1773.150000</v>
+        <v>-1773.15</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>10463.099924</v>
       </c>
       <c r="B21" s="1">
-        <v>2.906417</v>
+        <v>2.9064169999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1143.130000</v>
+        <v>1143.1300000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-256.405000</v>
+        <v>-256.40499999999997</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>10473.857656</v>
@@ -5379,28 +5795,28 @@
         <v>2.909405</v>
       </c>
       <c r="H21" s="1">
-        <v>1165.300000</v>
+        <v>1165.3</v>
       </c>
       <c r="I21" s="1">
-        <v>-215.941000</v>
+        <v>-215.941</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>10484.398664</v>
       </c>
       <c r="L21" s="1">
-        <v>2.912333</v>
+        <v>2.9123329999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1192.280000</v>
+        <v>1192.28</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.941000</v>
+        <v>-149.941</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>10494.663836</v>
@@ -5409,118 +5825,118 @@
         <v>2.915184</v>
       </c>
       <c r="R21" s="1">
-        <v>1200.240000</v>
+        <v>1200.24</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.468000</v>
+        <v>-127.468</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>10504.516895</v>
+        <v>10504.516895000001</v>
       </c>
       <c r="V21" s="1">
-        <v>2.917921</v>
+        <v>2.9179210000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1207.340000</v>
+        <v>1207.3399999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.663000</v>
+        <v>-106.663</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>10514.752336</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.920765</v>
+        <v>2.9207649999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1214.800000</v>
+        <v>1214.8</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.592000</v>
+        <v>-89.591999999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>10525.191108</v>
+        <v>10525.191108000001</v>
       </c>
       <c r="AF21" s="1">
         <v>2.923664</v>
       </c>
       <c r="AG21" s="1">
-        <v>1219.230000</v>
+        <v>1219.23</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.175500</v>
+        <v>-85.1755</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>10535.441925</v>
+        <v>10535.441924999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.926512</v>
+        <v>2.9265119999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1226.170000</v>
+        <v>1226.17</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.436700</v>
+        <v>-88.436700000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>10546.066262</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.929463</v>
+        <v>2.9294630000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1233.940000</v>
+        <v>1233.94</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.183000</v>
+        <v>-100.18300000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>10557.173676</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.932548</v>
+        <v>2.9325480000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>1243.780000</v>
+        <v>1243.78</v>
       </c>
       <c r="AW21" s="1">
-        <v>-119.282000</v>
+        <v>-119.282</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>10568.117370</v>
+        <v>10568.11737</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.935588</v>
+        <v>2.9355880000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1252.050000</v>
+        <v>1252.05</v>
       </c>
       <c r="BB21" s="1">
-        <v>-136.594000</v>
+        <v>-136.59399999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>10578.738732</v>
@@ -5529,91 +5945,91 @@
         <v>2.938539</v>
       </c>
       <c r="BF21" s="1">
-        <v>1291.210000</v>
+        <v>1291.21</v>
       </c>
       <c r="BG21" s="1">
-        <v>-217.758000</v>
+        <v>-217.75800000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>10589.329774</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.941480</v>
+        <v>2.9414799999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL21" s="1">
-        <v>-353.536000</v>
+        <v>-353.536</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>10599.892576</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.944415</v>
+        <v>2.9444149999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1470.890000</v>
+        <v>1470.89</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.992000</v>
+        <v>-575.99199999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>10610.863122</v>
+        <v>10610.863122000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>2.947462</v>
+        <v>2.9474619999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1599.880000</v>
+        <v>1599.88</v>
       </c>
       <c r="BV21" s="1">
-        <v>-827.972000</v>
+        <v>-827.97199999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>10622.087059</v>
+        <v>10622.087058999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.950580</v>
+        <v>2.95058</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1750.170000</v>
+        <v>1750.17</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1103.590000</v>
+        <v>-1103.5899999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>10635.359537</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.954267</v>
+        <v>2.9542670000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>2166.130000</v>
+        <v>2166.13</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1775.300000</v>
+        <v>-1775.3</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>10463.782421</v>
       </c>
@@ -5621,163 +6037,163 @@
         <v>2.906606</v>
       </c>
       <c r="C22" s="1">
-        <v>1143.130000</v>
+        <v>1143.1300000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-256.663000</v>
+        <v>-256.66300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>10474.202905</v>
       </c>
       <c r="G22" s="1">
-        <v>2.909501</v>
+        <v>2.9095010000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.060000</v>
+        <v>1165.06</v>
       </c>
       <c r="I22" s="1">
-        <v>-215.804000</v>
+        <v>-215.804</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>10484.746367</v>
       </c>
       <c r="L22" s="1">
-        <v>2.912430</v>
+        <v>2.9124300000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1192.730000</v>
+        <v>1192.73</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.730000</v>
+        <v>-149.72999999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>10495.013018</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.915281</v>
+        <v>2.9152809999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1200.310000</v>
+        <v>1200.31</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.498000</v>
+        <v>-127.498</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>10505.171086</v>
       </c>
       <c r="V22" s="1">
-        <v>2.918103</v>
+        <v>2.9181029999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1207.470000</v>
+        <v>1207.47</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.692000</v>
+        <v>-106.69199999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>10515.407055</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.920946</v>
+        <v>2.9209459999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.761100</v>
+        <v>-89.761099999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>10525.575507</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.923771</v>
+        <v>2.9237709999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1219.240000</v>
+        <v>1219.24</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.240300</v>
+        <v>-85.240300000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>10535.826858</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.926619</v>
+        <v>2.9266190000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1226.200000</v>
+        <v>1226.2</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.397100</v>
+        <v>-88.397099999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>10546.425334</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.929563</v>
+        <v>2.9295629999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1233.990000</v>
+        <v>1233.99</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.186000</v>
+        <v>-100.18600000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>10557.538201</v>
+        <v>10557.538200999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.932650</v>
+        <v>2.9326500000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1243.780000</v>
+        <v>1243.78</v>
       </c>
       <c r="AW22" s="1">
-        <v>-119.275000</v>
+        <v>-119.27500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>10568.474521</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.935687</v>
+        <v>2.9356870000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="BB22" s="1">
-        <v>-136.562000</v>
+        <v>-136.56200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>10579.149883</v>
@@ -5786,58 +6202,58 @@
         <v>2.938653</v>
       </c>
       <c r="BF22" s="1">
-        <v>1291.240000</v>
+        <v>1291.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-217.782000</v>
+        <v>-217.78200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>10589.750877</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.941597</v>
+        <v>2.9415969999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1359.130000</v>
+        <v>1359.13</v>
       </c>
       <c r="BL22" s="1">
-        <v>-353.575000</v>
+        <v>-353.57499999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>10600.295824</v>
+        <v>10600.295824000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>2.944527</v>
+        <v>2.9445269999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1470.870000</v>
+        <v>1470.87</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.961000</v>
+        <v>-575.96100000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>10611.288162</v>
+        <v>10611.288162000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.947580</v>
+        <v>2.9475799999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1600.000000</v>
+        <v>1600</v>
       </c>
       <c r="BV22" s="1">
-        <v>-827.795000</v>
+        <v>-827.79499999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>10622.533985</v>
@@ -5846,195 +6262,195 @@
         <v>2.950704</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1750.180000</v>
+        <v>1750.18</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1103.490000</v>
+        <v>-1103.49</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>10635.899152</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.954416</v>
+        <v>2.9544160000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2166.090000</v>
+        <v>2166.09</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1772.930000</v>
+        <v>-1772.93</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>10464.125651</v>
       </c>
       <c r="B23" s="1">
-        <v>2.906702</v>
+        <v>2.9067020000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1143.200000</v>
+        <v>1143.2</v>
       </c>
       <c r="D23" s="1">
-        <v>-256.549000</v>
+        <v>-256.54899999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>10474.548117</v>
       </c>
       <c r="G23" s="1">
-        <v>2.909597</v>
+        <v>2.9095970000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>1164.670000</v>
+        <v>1164.67</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.229000</v>
+        <v>-215.22900000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>10485.391127</v>
+        <v>10485.391127000001</v>
       </c>
       <c r="L23" s="1">
-        <v>2.912609</v>
+        <v>2.9126089999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>1192.700000</v>
+        <v>1192.7</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.761000</v>
+        <v>-149.761</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>10495.678154</v>
+        <v>10495.678153999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.915466</v>
+        <v>2.9154659999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1200.270000</v>
+        <v>1200.27</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.534000</v>
+        <v>-127.53400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>10505.547548</v>
       </c>
       <c r="V23" s="1">
-        <v>2.918208</v>
+        <v>2.9182079999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1207.390000</v>
+        <v>1207.3900000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.737000</v>
+        <v>-106.73699999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>10515.801344</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.921056</v>
+        <v>2.9210560000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1214.740000</v>
+        <v>1214.74</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.652700</v>
+        <v>-89.652699999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>10525.921218</v>
+        <v>10525.921217999999</v>
       </c>
       <c r="AF23" s="1">
         <v>2.923867</v>
       </c>
       <c r="AG23" s="1">
-        <v>1219.250000</v>
+        <v>1219.25</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.129300</v>
+        <v>-85.129300000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>10536.176003</v>
       </c>
       <c r="AK23" s="1">
-        <v>2.926716</v>
+        <v>2.9267159999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.434000</v>
+        <v>-88.433999999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>10546.784438</v>
+        <v>10546.784438000001</v>
       </c>
       <c r="AP23" s="1">
         <v>2.929662</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1233.950000</v>
+        <v>1233.95</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.157000</v>
+        <v>-100.157</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>10557.954839</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.932765</v>
+        <v>2.9327649999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1243.780000</v>
+        <v>1243.78</v>
       </c>
       <c r="AW23" s="1">
-        <v>-119.280000</v>
+        <v>-119.28</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>10568.883731</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.935801</v>
+        <v>2.9358010000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1252.080000</v>
+        <v>1252.08</v>
       </c>
       <c r="BB23" s="1">
-        <v>-136.606000</v>
+        <v>-136.60599999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>10579.460407</v>
@@ -6043,225 +6459,225 @@
         <v>2.938739</v>
       </c>
       <c r="BF23" s="1">
-        <v>1291.280000</v>
+        <v>1291.28</v>
       </c>
       <c r="BG23" s="1">
-        <v>-217.761000</v>
+        <v>-217.761</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>10590.086173</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.941691</v>
+        <v>2.9416910000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1359.190000</v>
+        <v>1359.19</v>
       </c>
       <c r="BL23" s="1">
-        <v>-353.566000</v>
+        <v>-353.56599999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>10600.689995</v>
+        <v>10600.689995000001</v>
       </c>
       <c r="BO23" s="1">
         <v>2.944636</v>
       </c>
       <c r="BP23" s="1">
-        <v>1470.890000</v>
+        <v>1470.89</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.964000</v>
+        <v>-575.96400000000006</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>10611.702816</v>
+        <v>10611.702816000001</v>
       </c>
       <c r="BT23" s="1">
         <v>2.947695</v>
       </c>
       <c r="BU23" s="1">
-        <v>1600.300000</v>
+        <v>1600.3</v>
       </c>
       <c r="BV23" s="1">
-        <v>-827.751000</v>
+        <v>-827.75099999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>10622.991761</v>
+        <v>10622.991760999999</v>
       </c>
       <c r="BY23" s="1">
         <v>2.950831</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1750.020000</v>
+        <v>1750.02</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1103.510000</v>
+        <v>-1103.51</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>10636.440821</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.954567</v>
+        <v>2.9545669999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2164.490000</v>
+        <v>2164.4899999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1775.020000</v>
+        <v>-1775.02</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>10464.467395</v>
       </c>
       <c r="B24" s="1">
-        <v>2.906796</v>
+        <v>2.9067959999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1143.060000</v>
+        <v>1143.06</v>
       </c>
       <c r="D24" s="1">
-        <v>-256.587000</v>
+        <v>-256.58699999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>10475.196356</v>
       </c>
       <c r="G24" s="1">
-        <v>2.909777</v>
+        <v>2.9097770000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.300000</v>
+        <v>1165.3</v>
       </c>
       <c r="I24" s="1">
-        <v>-215.339000</v>
+        <v>-215.339</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>10485.780982</v>
       </c>
       <c r="L24" s="1">
-        <v>2.912717</v>
+        <v>2.9127169999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1192.570000</v>
+        <v>1192.57</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.363000</v>
+        <v>-149.363</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>10496.056137</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.915571</v>
+        <v>2.9155709999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1200.280000</v>
+        <v>1200.28</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.542000</v>
+        <v>-127.542</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>10505.887309</v>
       </c>
       <c r="V24" s="1">
-        <v>2.918302</v>
+        <v>2.9183020000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1207.380000</v>
+        <v>1207.3800000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.703000</v>
+        <v>-106.703</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>10516.149071</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.921153</v>
+        <v>2.9211529999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1214.850000</v>
+        <v>1214.8499999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.714800</v>
+        <v>-89.714799999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>10526.267457</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.923963</v>
+        <v>2.9239630000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1219.170000</v>
+        <v>1219.17</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.154600</v>
+        <v>-85.154600000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>10536.600579</v>
       </c>
       <c r="AK24" s="1">
-        <v>2.926833</v>
+        <v>2.9268329999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1226.190000</v>
+        <v>1226.19</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.402700</v>
+        <v>-88.402699999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>10547.194134</v>
+        <v>10547.194133999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.929776</v>
+        <v>2.9297759999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1233.980000</v>
+        <v>1233.98</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.153000</v>
+        <v>-100.15300000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>10558.268311</v>
@@ -6270,587 +6686,587 @@
         <v>2.932852</v>
       </c>
       <c r="AV24" s="1">
-        <v>1243.770000</v>
+        <v>1243.77</v>
       </c>
       <c r="AW24" s="1">
-        <v>-119.280000</v>
+        <v>-119.28</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>10569.193689</v>
       </c>
       <c r="AZ24" s="1">
-        <v>2.935887</v>
+        <v>2.9358870000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="BB24" s="1">
-        <v>-136.574000</v>
+        <v>-136.57400000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>10579.819980</v>
+        <v>10579.81998</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.938839</v>
+        <v>2.9388390000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1291.240000</v>
+        <v>1291.24</v>
       </c>
       <c r="BG24" s="1">
-        <v>-217.738000</v>
+        <v>-217.738</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>10590.477021</v>
+        <v>10590.477021000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>2.941799</v>
+        <v>2.9417990000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL24" s="1">
-        <v>-353.591000</v>
+        <v>-353.59100000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>10601.115214</v>
+        <v>10601.115213999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>2.944754</v>
+        <v>2.9447540000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1470.850000</v>
+        <v>1470.85</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.977000</v>
+        <v>-575.97699999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>10612.133841</v>
+        <v>10612.133841000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.947815</v>
+        <v>2.9478149999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1600.430000</v>
+        <v>1600.43</v>
       </c>
       <c r="BV24" s="1">
-        <v>-827.668000</v>
+        <v>-827.66800000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>10623.438658</v>
+        <v>10623.438657999999</v>
       </c>
       <c r="BY24" s="1">
         <v>2.950955</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1750.180000</v>
+        <v>1750.18</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1103.640000</v>
+        <v>-1103.6400000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>10636.977487</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.954716</v>
+        <v>2.9547159999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2166.710000</v>
+        <v>2166.71</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1774.910000</v>
+        <v>-1774.91</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>10465.179651</v>
       </c>
       <c r="B25" s="1">
-        <v>2.906994</v>
+        <v>2.9069940000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1143.120000</v>
+        <v>1143.1199999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-256.346000</v>
+        <v>-256.346</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>10475.580756</v>
+        <v>10475.580755999999</v>
       </c>
       <c r="G25" s="1">
-        <v>2.909884</v>
+        <v>2.9098839999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1164.410000</v>
+        <v>1164.4100000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.343000</v>
+        <v>-215.34299999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>10486.125702</v>
+        <v>10486.125701999999</v>
       </c>
       <c r="L25" s="1">
-        <v>2.912813</v>
+        <v>2.9128129999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1192.330000</v>
+        <v>1192.33</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.579000</v>
+        <v>-149.57900000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>10496.407800</v>
+        <v>10496.407800000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.915669</v>
+        <v>2.9156689999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>1200.230000</v>
+        <v>1200.23</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.490000</v>
+        <v>-127.49</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>10506.232523</v>
+        <v>10506.232523000001</v>
       </c>
       <c r="V25" s="1">
-        <v>2.918398</v>
+        <v>2.9183979999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1207.370000</v>
+        <v>1207.3699999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.700000</v>
+        <v>-106.7</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>10516.499711</v>
       </c>
       <c r="AA25" s="1">
-        <v>2.921250</v>
+        <v>2.9212500000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1214.690000</v>
+        <v>1214.69</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.718900</v>
+        <v>-89.718900000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>10526.692528</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.924081</v>
+        <v>2.9240810000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1219.170000</v>
+        <v>1219.17</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.176600</v>
+        <v>-85.176599999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>10537.081736</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.926967</v>
+        <v>2.9269669999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1226.190000</v>
+        <v>1226.19</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.402000</v>
+        <v>-88.402000000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>10547.503147</v>
+        <v>10547.503146999999</v>
       </c>
       <c r="AP25" s="1">
         <v>2.929862</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1233.970000</v>
+        <v>1233.97</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.171000</v>
+        <v>-100.17100000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>10558.631915</v>
       </c>
       <c r="AU25" s="1">
-        <v>2.932953</v>
+        <v>2.9329529999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1243.820000</v>
+        <v>1243.82</v>
       </c>
       <c r="AW25" s="1">
-        <v>-119.290000</v>
+        <v>-119.29</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>10569.552296</v>
       </c>
       <c r="AZ25" s="1">
-        <v>2.935987</v>
+        <v>2.9359869999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1252.060000</v>
+        <v>1252.06</v>
       </c>
       <c r="BB25" s="1">
-        <v>-136.598000</v>
+        <v>-136.59800000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>10580.185071</v>
       </c>
       <c r="BE25" s="1">
-        <v>2.938940</v>
+        <v>2.9389400000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1291.230000</v>
+        <v>1291.23</v>
       </c>
       <c r="BG25" s="1">
-        <v>-217.786000</v>
+        <v>-217.786</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>10591.177906</v>
+        <v>10591.177906000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>2.941994</v>
+        <v>2.9419940000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1359.160000</v>
+        <v>1359.16</v>
       </c>
       <c r="BL25" s="1">
-        <v>-353.567000</v>
+        <v>-353.56700000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>10601.919229</v>
+        <v>10601.919228999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>2.944978</v>
+        <v>2.9449779999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1470.850000</v>
+        <v>1470.85</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.905000</v>
+        <v>-575.90499999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>10612.562879</v>
+        <v>10612.562878999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.947934</v>
+        <v>2.9479340000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1600.590000</v>
+        <v>1600.59</v>
       </c>
       <c r="BV25" s="1">
-        <v>-827.830000</v>
+        <v>-827.83</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>10623.896464</v>
+        <v>10623.896463999999</v>
       </c>
       <c r="BY25" s="1">
         <v>2.951082</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1750.360000</v>
+        <v>1750.36</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1103.630000</v>
+        <v>-1103.6300000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>10637.519599</v>
+        <v>10637.519598999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>2.954867</v>
+        <v>2.9548670000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2164.710000</v>
+        <v>2164.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1773.040000</v>
+        <v>-1773.04</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>10465.499074</v>
+        <v>10465.499073999999</v>
       </c>
       <c r="B26" s="1">
-        <v>2.907083</v>
+        <v>2.9070830000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1143.120000</v>
+        <v>1143.1199999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-256.658000</v>
+        <v>-256.65800000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>10475.925012</v>
       </c>
       <c r="G26" s="1">
-        <v>2.909979</v>
+        <v>2.9099789999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1164.600000</v>
+        <v>1164.5999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.426000</v>
+        <v>-215.42599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>10486.472901</v>
+        <v>10486.472900999999</v>
       </c>
       <c r="L26" s="1">
         <v>2.912909</v>
       </c>
       <c r="M26" s="1">
-        <v>1192.770000</v>
+        <v>1192.77</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.318000</v>
+        <v>-149.31800000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>10496.756991</v>
       </c>
       <c r="Q26" s="1">
-        <v>2.915766</v>
+        <v>2.9157660000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1200.290000</v>
+        <v>1200.29</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.455000</v>
+        <v>-127.455</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>10506.654155</v>
       </c>
       <c r="V26" s="1">
-        <v>2.918515</v>
+        <v>2.9185150000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1207.390000</v>
+        <v>1207.3900000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.725000</v>
+        <v>-106.72499999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>10516.926783</v>
+        <v>10516.926783000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.921369</v>
+        <v>2.9213689999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1214.700000</v>
+        <v>1214.7</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.607600</v>
+        <v>-89.607600000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>10526.971745</v>
+        <v>10526.971745000001</v>
       </c>
       <c r="AF26" s="1">
         <v>2.924159</v>
       </c>
       <c r="AG26" s="1">
-        <v>1219.150000</v>
+        <v>1219.1500000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.138000</v>
+        <v>-85.138000000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>10537.224548</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.927007</v>
+        <v>2.9270070000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1226.190000</v>
+        <v>1226.19</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.424200</v>
+        <v>-88.424199999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>10547.866708</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.929963</v>
+        <v>2.9299629999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1234.000000</v>
+        <v>1234</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.202000</v>
+        <v>-100.202</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>10558.998422</v>
+        <v>10558.998422000001</v>
       </c>
       <c r="AU26" s="1">
         <v>2.933055</v>
       </c>
       <c r="AV26" s="1">
-        <v>1243.780000</v>
+        <v>1243.78</v>
       </c>
       <c r="AW26" s="1">
-        <v>-119.302000</v>
+        <v>-119.30200000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>10569.911399</v>
+        <v>10569.911399000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>2.936086</v>
       </c>
       <c r="BA26" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="BB26" s="1">
-        <v>-136.575000</v>
+        <v>-136.57499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>10580.908502</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.939141</v>
+        <v>2.9391409999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1291.270000</v>
+        <v>1291.27</v>
       </c>
       <c r="BG26" s="1">
-        <v>-217.771000</v>
+        <v>-217.77099999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>10591.628730</v>
+        <v>10591.62873</v>
       </c>
       <c r="BJ26" s="1">
-        <v>2.942119</v>
+        <v>2.9421189999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1359.160000</v>
+        <v>1359.16</v>
       </c>
       <c r="BL26" s="1">
-        <v>-353.575000</v>
+        <v>-353.57499999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>10602.347773</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.945097</v>
+        <v>2.9450970000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1470.850000</v>
+        <v>1470.85</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.984000</v>
+        <v>-575.98400000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>10612.974064</v>
@@ -6859,45 +7275,46 @@
         <v>2.948048</v>
       </c>
       <c r="BU26" s="1">
-        <v>1600.840000</v>
+        <v>1600.84</v>
       </c>
       <c r="BV26" s="1">
-        <v>-827.993000</v>
+        <v>-827.99300000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>10624.344885</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.951207</v>
+        <v>2.9512070000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1750.270000</v>
+        <v>1750.27</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1103.390000</v>
+        <v>-1103.3900000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>10638.359839</v>
+        <v>10638.359839000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.955100</v>
+        <v>2.9550999999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>2167.040000</v>
+        <v>2167.04</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1774.320000</v>
+        <v>-1774.32</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>